--- a/spliced/struggle/2023-04-11_10-10-49/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-10-49/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>0.1814587861299474</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-5.779280513524995</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.271673738956447</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.346601516008363</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.140387788414934</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.259726375341407</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.785581156611421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.632258296012878</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6425724923610687</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.22618693113327</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.271841421723368</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.07577018067240526</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.077775649726385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.740465611219407</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2502757757902145</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.230584308505059</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.173786669969556</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.206141140311958</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.999948702752588</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.527452439069747</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.933494433760643</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.995455801486972</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-2.818732134997842</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.367858927696945</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.861171409487724</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.338251754641532</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.358771674335002</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.811524987220763</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-5.003720842301852</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2583636995404971</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.431181490421301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
